--- a/DOM_Banner/output/dept_banner/Bijin Thajudeen_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Bijin Thajudeen_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,707 +360,328 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Bijin Thajudeen</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283022723</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>P85: Heart Rate Variability And Cardio-Renal Outcomes In Patients With Novel Covid 19 Infection</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = "https://openalex.org/A5019177477", au_display_name = "Bijin Thajudeen", au_orcid = NA, author_position = "first", au_affiliation_raw = "Nephrology, Banner Uni of Arizona, Tucson, AZ, United States", institution_id = "https://openalex.org/I2802412784", institution_display_name = "Banner Health", institution_ror = "https://ror.org/039wwwz66", institution_country_code = "US", institution_type = "healthcare", institution_lineage = "https://openalex.org/I2802412784")</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Studies have shown that SARS-CoV2 can infect the vagal nerve and its connections to the brain stem. This neuronal involvement is seen mostly in the delayed inflammatory phase. It is associated with autonomic nervous system dysfunction, resulting in decreased respiratory ventilation and impaired blood pressure as well as heart rate regulation. The dysautonomia seen in SARSCoV-2 infection can be measured, and heart rate variability (HRV) measurement is one method. Our study explores the relationship between autonomic dysfunction and mortality in patients with COVID- 19 using HRV measurement. In a prospective design, data of consecutive patients with SARS-CoV-2 positive infection admitted to Banner university of Arizona, Tucson, and whose telemetry information was available was collected between August 2020 to November 2021. We attempted to use the telemetry data to measure diurnal heart rate variation by obtaining mean average hourly heart rates, divided into 12-hour day/night periods. The primary outcome measure was mortality. The secondary outcome measured includes incidence of acute kidney injury, transfer to ICU, need for mechanical ventilation, and live discharge from hospital. 334 patients were included in the study. The baseline demographic characteristics, medical history, radiological data, laboratory data, details of medications, and hospital course were reported. Diseases associated with an autonomic dysfunction like diabetes mellitus, chronic renal failure, a history of alcohol abuse, clinical evidence of autonomic neuropathy, or a recent myocardial infarction, documented constrictive or hypertrophic cardiomyopathy, sustained non-sinus dysrhythmias, atrioventricular conduction defects will be excluded in the final analysis. Mortality was high in patients with lower heart rate variability. Compared with survivors, non-survivors were older, were less frequently women, had a higher prevalence of diabetes mellitus, longer stay in the hospital, received an organ transplant, smoking, and higher level of calcitonin. Lower heart rate variability was associated with a higher incidence of acute kidney injury, need for mechanical ventilation, and need for ECMO. This study suggests that analysis of the variability of heart rate may have prognostic implications in patients with COVID19.</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>ASAIO Journal</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ASAIO Journal</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S8999885</t>
+          <t>https://doi.org/10.1097/01.mat.0000841556.06866.87</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1058-2916</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1097/01.mat.0000841556.06866.87</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Supplement 2</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/01.mat.0000841556.06866.87</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4283022723</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4283022723", doi = "https://doi.org/10.1097/01.mat.0000841556.06866.87")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/01.mat.0000841556.06866.87</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2172058999", "https://openalex.org/W2035572752", "https://openalex.org/W1969539514", "https://openalex.org/W2082785280", "https://openalex.org/W2052186997", "https://openalex.org/W1986853330", "https://openalex.org/W162283453", "https://openalex.org/W2400092772", "https://openalex.org/W2060935696", "https://openalex.org/W2053263344")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Spencer A. Ciammitti, Mike G. Reynolds, Jocelyn Reynolds, Diana K. Meyer, Emmanuel Enriquez, Julia Starkey, Brandon C. Bounds, Izzy Beeley, Bijin Thajudeen, Marvin J. Slepian</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283033082</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>P4: REDIEM: Renal Extremity Device to Measure Impedance, Edema, Movement</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5012964359", "https://openalex.org/A5070102912", "https://openalex.org/A5007112332", "https://openalex.org/A5047934915", "https://openalex.org/A5016939078", "https://openalex.org/A5060400063", "https://openalex.org/A5035494604", "https://openalex.org/A5023373852", "https://openalex.org/A5019177477", "https://openalex.org/A5070730048"), au_display_name = c("Spencer A. Ciammitti", "Mike G. Reynolds", "Jocelyn Reynolds", "Diana K. Meyer", "Emmanuel Enriquez", "Julia Starkey", 
-"Brandon C. Bounds", "Izzy Beeley", "Bijin Thajudeen", "Marvin J. Slepian"), au_orcid = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, "https://orcid.org/0000-0002-7864-6691"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States", "Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States", 
-"Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States", "Mechanical Engineering, University of Arizona, Tucson, AZ, United States", "Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States", "Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States", "Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States", "Chemical Engineering, University of Arizona, Tucson, AZ, United States", 
-"College of Medicine, University of Arizona, Tucson, AZ, United States", "Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", 
-"https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", 
-"https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "education", "education", "education", "education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"
-))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Purpose: Advanced and end-stage renal disease (ESRD), is a leading cause of morbidity and mortality. Beyond internal biochemical abnormalities, patients are externally symptomatic of water and electrolyte abnormalities with excess fluid retention, e.g. leg edema; and uncontrolled leg movement, as restless leg syndrome (RLS). Limited methods exist to quantitatively follow leg edema and RLS in patients out of hospital and at home. We report on development of an integrated device capable of monitoring: 1. leg edema, 2. water content/dry weight, and 3. leg movement. Methods: An impedance-edema sensor, with incorporated accelerometer was designed. All components were integrated into a comfortable wearable band, with iOS applicability for ready interpretation (Fig 1). For initial assessment, tissue edema, and leg movement, were measured using facsimiles. Sensor band was placed on hydrated pork belly (leg edema facsimile), current applied (&lt; 10 uA), resistance and impedance determined, and edema and tissue water content calculated via algorithm. Measurements were compared to those made with standardized bioimpedance system. For leg motion, band was placed on limb facsimile oscillated at defined frequency. Results: Initial sensor was able to measure differences in impedance correlating with differing degree of test tissue hydration. Measurements obtained via algorithm correlated closely with standardized bioimpedance system determinations (Fig 2.1, 2.2). The edema algorithm, compared to actual test absorbance, differed on average by 3.4%. Motion sensor was able to detect jerking RLS-like motions with an average of 8.3% error. Slower motion detection was found to be less accurate and is being currently addressed via system design evolution. Conclusion: Combining impedance measuring technology with motion sensing allows for fabrication of a wearable system able to measure leg edema and motion. Use of this system in Renal patients will allow optimization of management as related to water excess/dry weight and RLS and on a serial outpatient basis.</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>ASAIO Journal</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ASAIO Journal</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S8999885</t>
+          <t>https://doi.org/10.1097/01.mat.0000841232.01130.51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1058-2916</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1097/01.mat.0000841232.01130.51</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Supplement 2</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/01.mat.0000841232.01130.51</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4283033082</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4283033082", doi = "https://doi.org/10.1097/01.mat.0000841232.01130.51")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/01.mat.0000841232.01130.51</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W681872", "https://openalex.org/W2472920896", "https://openalex.org/W2085105832", "https://openalex.org/W2153295408", "https://openalex.org/W1984360600", "https://openalex.org/W4308372079", "https://openalex.org/W2056594824", "https://openalex.org/W1182817377", "https://openalex.org/W2202191948", "https://openalex.org/W2128001972")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Bekir Tanrıöver, Ahmet B. Gungor, Mohanad Al-Obaidi, Bijin Thajudeen, Ryan C. Wong, Iyad Mansour, Tirdad T. Zangeneh, Katherine M. Johnson, Nicole Low, Ruhaniyah Alam, E. M. González, Burhaneddin Sandıkçı, Sangeetha Muruganpandian, Gaurav Gupta, Edward J. Bedrick, Turçin Saridogan, Katherine Mendoza</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312197410</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>EFFECTIVENESS OF CASIRIVIMAB-IMDEVIMAB AND SOTROVIMAB MONOCLONAL ANTIBODY TREATMENT AMONG HIGH-RISK PATIENTS WITH SARS-CoV-2 INFECTION: A REAL-WORLD EXPERIENCE</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5016874418", "https://openalex.org/A5011527972", "https://openalex.org/A5045990380", "https://openalex.org/A5018828648", "https://openalex.org/A5014661126", "https://openalex.org/A5063588934", "https://openalex.org/A5076993071", "https://openalex.org/A5082568455", "https://openalex.org/A5000140694", "https://openalex.org/A5080536354", "https://openalex.org/A5010463505", "https://openalex.org/A5038631687", "https://openalex.org/A5081533811", "https://openalex.org/A5044372095", 
-"https://openalex.org/A5014060810", "https://openalex.org/A5017702104", "https://openalex.org/A5016503578"), au_display_name = c("Bekir Tanrıöver", "Ahmet B. Gungor", "Mohanad Al-Obaidi", "Bijin Thajudeen", "Ryan C. Wong", "Iyad Mansour", "Tirdad T. Zangeneh", "Katherine M. Johnson", "Nicole Low", "Ruhaniyah Alam", "E. M. González", "Burhaneddin Sandıkçı", "Sangeetha Muruganpandian", "Gaurav Gupta", "Edward J. Bedrick", "Turçin Saridogan", "Katherine Mendoza"), au_orcid = c("https://orcid.org/0000-0002-2378-9302", 
-NA, "https://orcid.org/0000-0002-5189-6594", NA, NA, NA, "https://orcid.org/0000-0002-9035-2952", "https://orcid.org/0000-0001-9047-9964", NA, NA, NA, "https://orcid.org/0000-0003-3202-8289", NA, "https://orcid.org/0000-0001-7941-0229", NA, "https://orcid.org/0000-0001-8659-445X", "https://orcid.org/0000-0001-9618-2336"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", 
-"last"), au_affiliation_raw = c("Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", "Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, U.S.A.", " The University of Arizona College of Medicine – Tucson: The University of Arizona College of Medicine Tucson;", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", 
-"Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", " The University of Arizona College of Medicine – Tucson: The University of Arizona College of Medicine Tucson;", "Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, U.S.A.", "Department of Surgery, The Banner University Medical Center, Tucson, Arizona, U.S.A.", "Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, U.S.A.", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.", 
-" Istanbul Technical University;", "Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, U.S.A.", "Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, U.S.A.", " The University of Arizona Mel and Enid Zuckerman College of Public Health;", " Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona", "Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A."
-), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I4210124665", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I138006243", "https://openalex.org/I48912391", "https://openalex.org/I184840846", "https://openalex.org/I138006243", 
-"https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "Banner - University Medical Center Tucson", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "Banner - University Medical Center Tucson", "Banner - University Medical Center Tucson", "Banner - University Medical Center Tucson", "University of Arizona", "Istanbul Technical University", 
-"Virginia Commonwealth University", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/02xbk5j62", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/02xbk5j62", "https://ror.org/02xbk5j62", "https://ror.org/02xbk5j62", "https://ror.org/03m2x1q45", "https://ror.org/059636586", 
-"https://ror.org/02nkdxk79", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "TR", "US", "US", "US", "US", "US"), institution_type = c("education", "healthcare", "education", "education", "education", "education", "education", "healthcare", "healthcare", "healthcare", "education", "education", "education", "education", "education", "education", 
-"education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210124665", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210124665", 
-"https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I48912391", "https://openalex.org/I184840846", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ABSTRACT BACKGROUND Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) can evade neutralizing antibodies, raising concerns about the effectiveness of anti-spike monoclonal antibodies (mAb). METHODS This study reports a retrospective data analysis in Banner Health Care System. Out of 109,788 adult patients who tested positive for COVID-19, the study cohort was split into patients who received Casirivimab-Imdevimab (Cas-Imd) (N=10,836; Delta-predominant period 6/2021-11/2021) and Sotrovimab (N=998; Omicron-predominant period 12/2021-1/2022) mAb compared to propensity-matched control groups (N=10,836 and N=998), respectively. Index date was the date of mAb administration or the date of positive COVID-19 testing. The primary and secondary outcomes were the incidence of composite outcome (all-cause hospitalization and/or mortality) and ICU admission at 30-days following index date, respectively. RESULTS Compared to the propensity-matched untreated control cohort, the Cas-Imd mAb reduced the composite outcome (from 7.5% to 3.7%; difference: -3.8% [95% CI: (-4.4%, -3.2%)], p &amp;lt;0.01) regardless of their vaccination status, while Sotrovimab mAb did not (5.0% vs. 3.8%; difference: -1.2% [95% CI: (-3.1%, 0.7%)], p =0.22). In terms of the secondary outcome, similarly Cas-Imd mAb decreased ICU admission during the first hospitalization (from 1.5% to 0.5%; difference: -1.0% [95% CI: (-1.3%, -0.7%)], p &amp;lt;0.01) compared to the control group, whereas Sotrovimab mAb did not (0.9% vs. 0.6%; difference: -0.3% [95% CI: (-1.2%, 0.6%)], p =0.61). Comparing the periods, the Omicron-predominant period was associated with lower composite outcome than that during the Delta-predominant period. CONCLUSIONS Cas-Imd mAb was effective against the SARS-CoV-2 Delta variant, however sotrovimab lacked efficacy in patients with SARS-CoV-2 Omicron-predominant period. Key Points This retrospective propensity matched analysis showed that treatment with Cas-Imd mAb was effective against the SARS-CoV-2 Delta variant to reduce the all-cause hospitalization and mortality within 30 days, by contrast sotrovimab mAb utilization lacked the efficacy against SARS-CoV-2 Omicron variant.</t>
+          <t>2022-12-26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4306400573</t>
+          <t>https://doi.org/10.1101/2022.12.23.22283921</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1101/2022.12.23.22283921</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>https://www.medrxiv.org/content/medrxiv/early/2022/12/26/2022.12.23.22283921.full.pdf</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>cc-by-nc</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>https://www.medrxiv.org/content/medrxiv/early/2022/12/26/2022.12.23.22283921.full.pdf</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4312197410</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4312197410", doi = "https://doi.org/10.1101/2022.12.23.22283921")</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1101/2022.12.23.22283921</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W3008443627", "https://openalex.org/W3111431752", "https://openalex.org/W3198233589", "https://openalex.org/W3214796554", "https://openalex.org/W4200307715", "https://openalex.org/W4200391585", "https://openalex.org/W4207020509", "https://openalex.org/W4211242522", "https://openalex.org/W4220807057", "https://openalex.org/W4220848096", "https://openalex.org/W4220886953", "https://openalex.org/W4220904663", "https://openalex.org/W4220970752", "https://openalex.org/W4223491415", 
-"https://openalex.org/W4224232629", "https://openalex.org/W4226004814", "https://openalex.org/W4226164088", "https://openalex.org/W4226192094", "https://openalex.org/W4280528857", "https://openalex.org/W4282974695")</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4206669628", "https://openalex.org/W3196249313", "https://openalex.org/W3036305013", "https://openalex.org/W4205317059", "https://openalex.org/W2275480158", "https://openalex.org/W2603773853", "https://openalex.org/W3176864053", "https://openalex.org/W3198183218", "https://openalex.org/W4205810683", "https://openalex.org/W4224279380")</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Bijin Thajudeen_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Bijin Thajudeen_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Nephrology, Banner Uni of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283022723</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>P85: Heart Rate Variability And Cardio-Renal Outcomes In Patients With Novel Covid 19 Infection</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841556.06866.87</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841556.06866.87</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Mechanical Engineering, University of Arizona, Tucson, AZ, United States; Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Chemical Engineering, University of Arizona, Tucson, AZ, United States; College of Medicine, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283033082</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>P4: REDIEM: Renal Extremity Device to Measure Impedance, Edema, Movement</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841232.01130.51</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841232.01130.51</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, U.S.A.;  The University of Arizona College of Medicine – Tucson: The University of Arizona College of Medicine Tucson;; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.;  The University of Arizona College of Medicine – Tucson: The University of Arizona College of Medicine Tucson;; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Department of Surgery, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.;  Istanbul Technical University;; Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, U.S.A.; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, U.S.A.;  The University of Arizona Mel and Enid Zuckerman College of Public Health;;  Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312197410</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>EFFECTIVENESS OF CASIRIVIMAB-IMDEVIMAB AND SOTROVIMAB MONOCLONAL ANTIBODY TREATMENT AMONG HIGH-RISK PATIENTS WITH SARS-CoV-2 INFECTION: A REAL-WORLD EXPERIENCE</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-12-26</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.23.22283921</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.23.22283921</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
